--- a/docs/libro ventas prueba.xlsx
+++ b/docs/libro ventas prueba.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,8 +16,8 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Imp_IVA1" vbProcedure="false">[1]Ventas!$CG$12:$CH$1011</definedName>
-    <definedName function="false" hidden="false" name="Imp_IVA2" vbProcedure="false">[1]Ventas!$CI$11:$CJ$1011</definedName>
+    <definedName function="false" hidden="false" name="Imp_IVA1" vbProcedure="false">[2]Ventas!$CG$12:$CH$1011</definedName>
+    <definedName function="false" hidden="false" name="Imp_IVA2" vbProcedure="false">[2]Ventas!$CI$11:$CJ$1011</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -279,7 +279,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -290,30 +290,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R65536"/>
+  <dimension ref="A1:P65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="12" min="6" style="2" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="4" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="4" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="4" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="2" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="12" min="6" style="2" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="4" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="4" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1023" min="18" style="2" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="n">
         <v>42005</v>
       </c>
@@ -350,16 +350,14 @@
       <c r="L1" s="10" t="n">
         <v>3934.01</v>
       </c>
-      <c r="M1" s="4" t="n">
-        <v>96</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="5" t="n">
+      <c r="N1" s="5" t="n">
         <v>100000000</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="11.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
@@ -398,19 +396,16 @@
       <c r="L2" s="10" t="n">
         <v>180</v>
       </c>
-      <c r="M2" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="5" t="n">
+      <c r="N2" s="5" t="n">
         <v>100000000</v>
       </c>
+      <c r="O2" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="P2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -451,19 +446,16 @@
       <c r="L3" s="10" t="n">
         <v>1260.49</v>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="5" t="n">
+      <c r="N3" s="5" t="n">
         <v>100000000</v>
       </c>
+      <c r="O3" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="P3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -504,19 +496,16 @@
       <c r="L4" s="10" t="n">
         <v>551.17</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="N4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="5" t="n">
+      <c r="N4" s="5" t="n">
         <v>100000000</v>
       </c>
+      <c r="O4" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="P4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -557,19 +546,16 @@
       <c r="L5" s="10" t="n">
         <v>8025.09</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="N5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="5" t="n">
+      <c r="N5" s="5" t="n">
         <v>100000000</v>
       </c>
+      <c r="O5" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="P5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -610,19 +596,16 @@
       <c r="L6" s="10" t="n">
         <v>-3726</v>
       </c>
-      <c r="M6" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="N6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="5" t="n">
+      <c r="N6" s="5" t="n">
         <v>100000000</v>
       </c>
+      <c r="O6" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="P6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -663,19 +646,16 @@
       <c r="L7" s="10" t="n">
         <v>-825</v>
       </c>
-      <c r="M7" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="N7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="5" t="n">
+      <c r="N7" s="5" t="n">
         <v>100000000</v>
       </c>
+      <c r="O7" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="P7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -716,19 +696,16 @@
       <c r="L8" s="10" t="n">
         <v>418.98</v>
       </c>
-      <c r="M8" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="N8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="5" t="n">
+      <c r="N8" s="5" t="n">
         <v>100000000</v>
       </c>
+      <c r="O8" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="P8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -770,18 +747,15 @@
         <v>65739.34</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>87</v>
-      </c>
-      <c r="N9" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="O9" s="5" t="n">
+      <c r="N9" s="5" t="n">
         <v>106077001</v>
       </c>
-      <c r="P9" s="4" t="n">
+      <c r="O9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/libro ventas prueba.xlsx
+++ b/docs/libro ventas prueba.xlsx
@@ -292,22 +292,22 @@
   </sheetPr>
   <dimension ref="A1:P65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="12" min="6" style="2" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="12" min="6" style="2" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="4" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="5" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="4" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="4" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="4" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="4" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="5" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="1023" min="18" style="2" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
